--- a/需求规格说明书/QFD打分表（已回收）/QFD汇总.xlsx
+++ b/需求规格说明书/QFD打分表（已回收）/QFD汇总.xlsx
@@ -170,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="216">
   <si>
     <t>教师申请开课</t>
   </si>
@@ -932,6 +932,42 @@
   </si>
   <si>
     <t>总价值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站响应时间在一秒内</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站的安全性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站用户注册审查功能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站文件下载速度达到校网下载速度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站能在主流浏览器中正常运行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站在windows系统和linux系统上能正常运行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员只能由客户设置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站的备份/恢复</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站在当前主流配置机子上能正常运行</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1354,10 +1390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:H209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H200" sqref="A1:H200"/>
+      <selection activeCell="H209" sqref="A1:H209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3384,64 +3420,64 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
-        <v>105</v>
+      <c r="A73" s="5" t="s">
+        <v>209</v>
       </c>
       <c r="B73" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C73" s="5">
         <v>8</v>
       </c>
       <c r="D73" s="2">
         <f>B73+C73</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E73" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F73" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G73" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="H73" s="3">
         <f>D73*G73/(E73+F73)</f>
-        <v>1.4666666666666668</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
-        <v>109</v>
+      <c r="A74" s="5" t="s">
+        <v>215</v>
       </c>
       <c r="B74" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C74" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D74" s="2">
         <f>B74+C74</f>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E74" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F74" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G74" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="H74" s="3">
         <f>D74*G74/(E74+F74)</f>
-        <v>1.4666666666666668</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="7" t="s">
-        <v>17</v>
+      <c r="A75" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="B75" s="5">
         <v>8</v>
@@ -3468,8 +3504,8 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="7" t="s">
-        <v>35</v>
+      <c r="A76" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="B76" s="5">
         <v>8</v>
@@ -3482,10 +3518,10 @@
         <v>16</v>
       </c>
       <c r="E76" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F76" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G76" s="2">
         <v>1.1000000000000001</v>
@@ -3497,7 +3533,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="B77" s="5">
         <v>8</v>
@@ -3510,10 +3546,10 @@
         <v>16</v>
       </c>
       <c r="E77" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F77" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G77" s="2">
         <v>1.1000000000000001</v>
@@ -3524,125 +3560,125 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
-        <v>115</v>
+      <c r="A78" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="B78" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C78" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D78" s="2">
         <f>B78+C78</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E78" s="2">
         <v>4</v>
       </c>
       <c r="F78" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G78" s="2">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H78" s="3">
         <f>D78*G78/(E78+F78)</f>
-        <v>1.4666666666666666</v>
+        <v>1.4666666666666668</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
-        <v>187</v>
+      <c r="A79" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="B79" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C79" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D79" s="2">
         <f>B79+C79</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E79" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F79" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G79" s="2">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H79" s="3">
         <f>D79*G79/(E79+F79)</f>
-        <v>1.4666666666666666</v>
+        <v>1.4666666666666668</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B80" s="6">
-        <v>6</v>
-      </c>
-      <c r="C80" s="6">
-        <v>7</v>
+        <v>115</v>
+      </c>
+      <c r="B80" s="5">
+        <v>5</v>
+      </c>
+      <c r="C80" s="5">
+        <v>6</v>
       </c>
       <c r="D80" s="2">
         <f>B80+C80</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E80" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F80" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G80" s="2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H80" s="3">
         <f>D80*G80/(E80+F80)</f>
-        <v>1.4444444444444444</v>
+        <v>1.4666666666666666</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>112</v>
+        <v>187</v>
       </c>
       <c r="B81" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C81" s="5">
         <v>6</v>
       </c>
       <c r="D81" s="2">
         <f>B81+C81</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E81" s="2">
         <v>4</v>
       </c>
       <c r="F81" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G81" s="2">
         <v>1.2</v>
       </c>
       <c r="H81" s="3">
         <f>D81*G81/(E81+F81)</f>
-        <v>1.44</v>
+        <v>1.4666666666666666</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B82" s="5">
-        <v>6</v>
-      </c>
-      <c r="C82" s="5">
+        <v>158</v>
+      </c>
+      <c r="B82" s="6">
+        <v>6</v>
+      </c>
+      <c r="C82" s="6">
         <v>7</v>
       </c>
       <c r="D82" s="2">
@@ -3650,178 +3686,178 @@
         <v>13</v>
       </c>
       <c r="E82" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F82" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G82" s="2">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H82" s="3">
         <f>D82*G82/(E82+F82)</f>
-        <v>1.4181818181818182</v>
+        <v>1.4444444444444444</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="7" t="s">
-        <v>48</v>
+      <c r="A83" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="B83" s="5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C83" s="5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D83" s="2">
         <f>B83+C83</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E83" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F83" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G83" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="H83" s="3">
         <f>D83*G83/(E83+F83)</f>
-        <v>1.4142857142857144</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="7" t="s">
-        <v>194</v>
+      <c r="A84" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="B84" s="5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C84" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D84" s="2">
         <f>B84+C84</f>
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E84" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F84" s="2">
         <v>5</v>
       </c>
       <c r="G84" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="H84" s="3">
         <f>D84*G84/(E84+F84)</f>
-        <v>1.4142857142857144</v>
+        <v>1.4181818181818182</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
-        <v>97</v>
+      <c r="A85" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="B85" s="5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C85" s="5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2">
         <f>B85+C85</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E85" s="2">
         <v>6</v>
       </c>
       <c r="F85" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G85" s="2">
         <v>1.1000000000000001</v>
       </c>
       <c r="H85" s="3">
         <f>D85*G85/(E85+F85)</f>
-        <v>1.4000000000000001</v>
+        <v>1.4142857142857144</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B86" s="6">
-        <v>8</v>
-      </c>
-      <c r="C86" s="6">
-        <v>6</v>
+      <c r="A86" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B86" s="5">
+        <v>9</v>
+      </c>
+      <c r="C86" s="5">
+        <v>9</v>
       </c>
       <c r="D86" s="2">
         <f>B86+C86</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E86" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F86" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G86" s="2">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H86" s="3">
         <f>D86*G86/(E86+F86)</f>
-        <v>1.4</v>
+        <v>1.4142857142857144</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B87" s="6">
-        <v>3</v>
-      </c>
-      <c r="C87" s="6">
-        <v>4</v>
+        <v>97</v>
+      </c>
+      <c r="B87" s="5">
+        <v>7</v>
+      </c>
+      <c r="C87" s="5">
+        <v>7</v>
       </c>
       <c r="D87" s="2">
         <f>B87+C87</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E87" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F87" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G87" s="2">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H87" s="3">
         <f>D87*G87/(E87+F87)</f>
-        <v>1.4</v>
+        <v>1.4000000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="B88" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D88" s="2">
         <f>B88+C88</f>
         <v>14</v>
       </c>
       <c r="E88" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F88" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G88" s="2">
         <v>1</v>
@@ -3832,176 +3868,176 @@
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B89" s="5">
-        <v>5</v>
-      </c>
-      <c r="C89" s="5">
-        <v>5</v>
+      <c r="A89" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B89" s="6">
+        <v>3</v>
+      </c>
+      <c r="C89" s="6">
+        <v>4</v>
       </c>
       <c r="D89" s="2">
         <f>B89+C89</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E89" s="2">
         <v>2</v>
       </c>
       <c r="F89" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G89" s="2">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="H89" s="3">
         <f>D89*G89/(E89+F89)</f>
-        <v>1.375</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="B90" s="5">
-        <v>5</v>
-      </c>
-      <c r="C90" s="5">
-        <v>5</v>
+      <c r="A90" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B90" s="6">
+        <v>7</v>
+      </c>
+      <c r="C90" s="6">
+        <v>7</v>
       </c>
       <c r="D90" s="2">
         <f>B90+C90</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E90" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F90" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G90" s="2">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="H90" s="3">
         <f>D90*G90/(E90+F90)</f>
-        <v>1.375</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
-        <v>123</v>
+      <c r="A91" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="B91" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C91" s="5">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D91" s="2">
         <f>B91+C91</f>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E91" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F91" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G91" s="2">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H91" s="3">
         <f>D91*G91/(E91+F91)</f>
-        <v>1.3599999999999999</v>
+        <v>1.375</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
-        <v>133</v>
+      <c r="A92" s="7" t="s">
+        <v>192</v>
       </c>
       <c r="B92" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C92" s="5">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D92" s="2">
         <f>B92+C92</f>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E92" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F92" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G92" s="2">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H92" s="3">
         <f>D92*G92/(E92+F92)</f>
-        <v>1.3599999999999999</v>
+        <v>1.375</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="7" t="s">
-        <v>29</v>
+      <c r="A93" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="B93" s="5">
         <v>8</v>
       </c>
       <c r="C93" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2">
         <f>B93+C93</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E93" s="2">
         <v>8</v>
       </c>
       <c r="F93" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G93" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="H93" s="3">
         <f>D93*G93/(E93+F93)</f>
-        <v>1.3538461538461539</v>
+        <v>1.3599999999999999</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="7" t="s">
-        <v>36</v>
+      <c r="A94" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="B94" s="5">
         <v>8</v>
       </c>
       <c r="C94" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2">
         <f>B94+C94</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E94" s="2">
         <v>7</v>
       </c>
       <c r="F94" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G94" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="H94" s="3">
         <f>D94*G94/(E94+F94)</f>
-        <v>1.3538461538461539</v>
+        <v>1.3599999999999999</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B95" s="5">
         <v>8</v>
@@ -4028,92 +4064,92 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
-        <v>128</v>
+      <c r="A96" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="B96" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C96" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D96" s="2">
         <f>B96+C96</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E96" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F96" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G96" s="2">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H96" s="3">
         <f>D96*G96/(E96+F96)</f>
-        <v>1.3333333333333333</v>
+        <v>1.3538461538461539</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B97" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C97" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D97" s="2">
         <f>B97+C97</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E97" s="2">
         <v>8</v>
       </c>
       <c r="F97" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G97" s="2">
         <v>1.1000000000000001</v>
       </c>
       <c r="H97" s="3">
         <f>D97*G97/(E97+F97)</f>
-        <v>1.32</v>
+        <v>1.3538461538461539</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="7" t="s">
-        <v>19</v>
+      <c r="A98" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="B98" s="5">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C98" s="5">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D98" s="2">
         <f>B98+C98</f>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E98" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F98" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G98" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="H98" s="3">
         <f>D98*G98/(E98+F98)</f>
-        <v>1.32</v>
+        <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B99" s="5">
         <v>9</v>
@@ -4141,23 +4177,23 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
-        <v>190</v>
+        <v>19</v>
       </c>
       <c r="B100" s="5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C100" s="5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2">
         <f>B100+C100</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E100" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F100" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G100" s="2">
         <v>1.1000000000000001</v>
@@ -4169,23 +4205,23 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B101" s="5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C101" s="5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2">
         <f>B101+C101</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E101" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F101" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G101" s="2">
         <v>1.1000000000000001</v>
@@ -4197,7 +4233,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
-        <v>42</v>
+        <v>190</v>
       </c>
       <c r="B102" s="5">
         <v>6</v>
@@ -4210,10 +4246,10 @@
         <v>12</v>
       </c>
       <c r="E102" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F102" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G102" s="2">
         <v>1.1000000000000001</v>
@@ -4225,20 +4261,20 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B103" s="5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C103" s="5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D103" s="2">
         <f>B103+C103</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E103" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F103" s="2">
         <v>6</v>
@@ -4253,23 +4289,23 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B104" s="5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C104" s="5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D104" s="2">
         <f>B104+C104</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E104" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F104" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G104" s="2">
         <v>1.1000000000000001</v>
@@ -4281,7 +4317,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
-        <v>196</v>
+        <v>49</v>
       </c>
       <c r="B105" s="5">
         <v>9</v>
@@ -4294,10 +4330,10 @@
         <v>18</v>
       </c>
       <c r="E105" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F105" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G105" s="2">
         <v>1.1000000000000001</v>
@@ -4308,260 +4344,260 @@
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="4" t="s">
-        <v>113</v>
+      <c r="A106" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="B106" s="5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C106" s="5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2">
         <f>B106+C106</f>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E106" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F106" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G106" s="2">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H106" s="3">
         <f>D106*G106/(E106+F106)</f>
-        <v>1.3199999999999998</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B107" s="6">
-        <v>7</v>
-      </c>
-      <c r="C107" s="6">
-        <v>6</v>
+      <c r="A107" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B107" s="5">
+        <v>9</v>
+      </c>
+      <c r="C107" s="5">
+        <v>9</v>
       </c>
       <c r="D107" s="2">
         <f>B107+C107</f>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E107" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F107" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G107" s="2">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H107" s="3">
         <f>D107*G107/(E107+F107)</f>
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B108" s="6">
-        <v>7</v>
-      </c>
-      <c r="C108" s="6">
-        <v>6</v>
+        <v>113</v>
+      </c>
+      <c r="B108" s="5">
+        <v>6</v>
+      </c>
+      <c r="C108" s="5">
+        <v>5</v>
       </c>
       <c r="D108" s="2">
         <f>B108+C108</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E108" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F108" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G108" s="2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H108" s="3">
         <f>D108*G108/(E108+F108)</f>
-        <v>1.3</v>
+        <v>1.3199999999999998</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
-        <v>147</v>
+      <c r="A109" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="B109" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C109" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D109" s="2">
         <f>B109+C109</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E109" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F109" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G109" s="2">
         <v>1</v>
       </c>
       <c r="H109" s="3">
         <f>D109*G109/(E109+F109)</f>
-        <v>1.2857142857142858</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B110" s="5">
-        <v>7</v>
-      </c>
-      <c r="C110" s="5">
-        <v>7</v>
+      <c r="A110" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B110" s="6">
+        <v>7</v>
+      </c>
+      <c r="C110" s="6">
+        <v>6</v>
       </c>
       <c r="D110" s="2">
         <f>B110+C110</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E110" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F110" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G110" s="2">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="H110" s="3">
         <f>D110*G110/(E110+F110)</f>
-        <v>1.2833333333333334</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="4" t="s">
-        <v>132</v>
+      <c r="A111" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="B111" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C111" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D111" s="2">
         <f>B111+C111</f>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E111" s="2">
         <v>8</v>
       </c>
       <c r="F111" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G111" s="2">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H111" s="3">
         <f>D111*G111/(E111+F111)</f>
-        <v>1.2749999999999999</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B112" s="5">
-        <v>5</v>
-      </c>
-      <c r="C112" s="5">
+      <c r="A112" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B112" s="6">
+        <v>4</v>
+      </c>
+      <c r="C112" s="6">
         <v>5</v>
       </c>
       <c r="D112" s="2">
         <f>B112+C112</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E112" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F112" s="2">
         <v>5</v>
       </c>
       <c r="G112" s="2">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="H112" s="3">
         <f>D112*G112/(E112+F112)</f>
-        <v>1.2222222222222223</v>
+        <v>1.2857142857142858</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="4" t="s">
-        <v>84</v>
+      <c r="A113" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="B113" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C113" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D113" s="2">
         <f>B113+C113</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E113" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F113" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G113" s="2">
         <v>1.1000000000000001</v>
       </c>
       <c r="H113" s="3">
         <f>D113*G113/(E113+F113)</f>
-        <v>1.2222222222222223</v>
+        <v>1.2833333333333334</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="7" t="s">
-        <v>43</v>
+      <c r="A114" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="B114" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C114" s="5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2">
         <f>B114+C114</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E114" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F114" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G114" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="H114" s="3">
         <f>D114*G114/(E114+F114)</f>
-        <v>1.2000000000000002</v>
+        <v>1.2749999999999999</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="B115" s="5">
         <v>5</v>
@@ -4574,94 +4610,94 @@
         <v>10</v>
       </c>
       <c r="E115" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F115" s="2">
         <v>5</v>
       </c>
       <c r="G115" s="2">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H115" s="3">
         <f>D115*G115/(E115+F115)</f>
-        <v>1.2</v>
+        <v>1.2222222222222223</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="B116" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C116" s="5">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D116" s="2">
         <f>B116+C116</f>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E116" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F116" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G116" s="2">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H116" s="3">
         <f>D116*G116/(E116+F116)</f>
-        <v>1.2</v>
+        <v>1.2222222222222223</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="4" t="s">
-        <v>141</v>
+      <c r="A117" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="B117" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C117" s="5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D117" s="2">
         <f>B117+C117</f>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E117" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F117" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G117" s="2">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H117" s="3">
         <f>D117*G117/(E117+F117)</f>
-        <v>1.2</v>
+        <v>1.2000000000000002</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="B118" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C118" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D118" s="2">
         <f>B118+C118</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E118" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F118" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G118" s="2">
         <v>1.2</v>
@@ -4673,23 +4709,23 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="B119" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C119" s="5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2">
         <f>B119+C119</f>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E119" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F119" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G119" s="2">
         <v>1.2</v>
@@ -4701,23 +4737,23 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="B120" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C120" s="5">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2">
         <f>B120+C120</f>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E120" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F120" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G120" s="2">
         <v>1.2</v>
@@ -4728,161 +4764,161 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="7" t="s">
-        <v>22</v>
+      <c r="A121" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="B121" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C121" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D121" s="2">
         <f>B121+C121</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E121" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F121" s="2">
         <v>6</v>
       </c>
       <c r="G121" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="H121" s="3">
         <f>D121*G121/(E121+F121)</f>
-        <v>1.1846153846153848</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B122" s="6">
-        <v>5</v>
-      </c>
-      <c r="C122" s="6">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="B122" s="5">
+        <v>5</v>
+      </c>
+      <c r="C122" s="5">
+        <v>6</v>
       </c>
       <c r="D122" s="2">
         <f>B122+C122</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E122" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F122" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G122" s="2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H122" s="3">
         <f>D122*G122/(E122+F122)</f>
-        <v>1.1818181818181819</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="7" t="s">
-        <v>199</v>
+      <c r="A123" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B123" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C123" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D123" s="2">
         <f>B123+C123</f>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E123" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F123" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G123" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="H123" s="3">
         <f>D123*G123/(E123+F123)</f>
-        <v>1.1733333333333333</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B124" s="6">
-        <v>9</v>
-      </c>
-      <c r="C124" s="6">
-        <v>8</v>
+      <c r="A124" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B124" s="5">
+        <v>4</v>
+      </c>
+      <c r="C124" s="5">
+        <v>4</v>
       </c>
       <c r="D124" s="2">
         <f>B124+C124</f>
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E124" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F124" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G124" s="2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H124" s="3">
         <f>D124*G124/(E124+F124)</f>
-        <v>1.1333333333333333</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B125" s="6">
-        <v>9</v>
-      </c>
-      <c r="C125" s="6">
-        <v>9</v>
+      <c r="A125" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B125" s="5">
+        <v>7</v>
+      </c>
+      <c r="C125" s="5">
+        <v>7</v>
       </c>
       <c r="D125" s="2">
         <f>B125+C125</f>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E125" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F125" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G125" s="2">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H125" s="3">
         <f>D125*G125/(E125+F125)</f>
-        <v>1.125</v>
+        <v>1.1846153846153848</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B126" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C126" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D126" s="2">
         <f>B126+C126</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E126" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F126" s="2">
         <v>5</v>
@@ -4892,78 +4928,78 @@
       </c>
       <c r="H126" s="3">
         <f>D126*G126/(E126+F126)</f>
-        <v>1.1111111111111112</v>
+        <v>1.1818181818181819</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="4" t="s">
-        <v>77</v>
+      <c r="A127" s="7" t="s">
+        <v>199</v>
       </c>
       <c r="B127" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C127" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D127" s="2">
         <f>B127+C127</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E127" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F127" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G127" s="2">
         <v>1.1000000000000001</v>
       </c>
       <c r="H127" s="3">
         <f>D127*G127/(E127+F127)</f>
-        <v>1.1000000000000001</v>
+        <v>1.1733333333333333</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B128" s="5">
-        <v>7</v>
-      </c>
-      <c r="C128" s="5">
-        <v>7</v>
+      <c r="A128" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B128" s="6">
+        <v>9</v>
+      </c>
+      <c r="C128" s="6">
+        <v>8</v>
       </c>
       <c r="D128" s="2">
         <f>B128+C128</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E128" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F128" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G128" s="2">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="H128" s="3">
         <f>D128*G128/(E128+F128)</f>
-        <v>1.1000000000000001</v>
+        <v>1.1333333333333333</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B129" s="5">
-        <v>8</v>
-      </c>
-      <c r="C129" s="5">
-        <v>8</v>
+      <c r="A129" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B129" s="6">
+        <v>9</v>
+      </c>
+      <c r="C129" s="6">
+        <v>9</v>
       </c>
       <c r="D129" s="2">
         <f>B129+C129</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E129" s="2">
         <v>8</v>
@@ -4972,60 +5008,60 @@
         <v>8</v>
       </c>
       <c r="G129" s="2">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="H129" s="3">
         <f>D129*G129/(E129+F129)</f>
-        <v>1.1000000000000001</v>
+        <v>1.125</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B130" s="5">
-        <v>6</v>
-      </c>
-      <c r="C130" s="5">
+      <c r="A130" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B130" s="6">
+        <v>4</v>
+      </c>
+      <c r="C130" s="6">
         <v>6</v>
       </c>
       <c r="D130" s="2">
         <f>B130+C130</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E130" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F130" s="2">
         <v>5</v>
       </c>
       <c r="G130" s="2">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="H130" s="3">
         <f>D130*G130/(E130+F130)</f>
-        <v>1.1000000000000001</v>
+        <v>1.1111111111111112</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="7" t="s">
-        <v>57</v>
+      <c r="A131" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="B131" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C131" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D131" s="2">
         <f>B131+C131</f>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E131" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F131" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G131" s="2">
         <v>1.1000000000000001</v>
@@ -5037,23 +5073,23 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="B132" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C132" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D132" s="2">
         <f>B132+C132</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E132" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F132" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G132" s="2">
         <v>1.1000000000000001</v>
@@ -5065,23 +5101,23 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="B133" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C133" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D133" s="2">
         <f>B133+C133</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E133" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F133" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G133" s="2">
         <v>1.1000000000000001</v>
@@ -5093,23 +5129,23 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
-        <v>200</v>
+        <v>44</v>
       </c>
       <c r="B134" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C134" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D134" s="2">
         <f>B134+C134</f>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E134" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F134" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G134" s="2">
         <v>1.1000000000000001</v>
@@ -5120,36 +5156,36 @@
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="4" t="s">
-        <v>3</v>
+      <c r="A135" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="B135" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C135" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D135" s="2">
         <f>B135+C135</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E135" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F135" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G135" s="2">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H135" s="3">
         <f>D135*G135/(E135+F135)</f>
-        <v>1.0999999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="4" t="s">
-        <v>4</v>
+      <c r="A136" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="B136" s="5">
         <v>5</v>
@@ -5162,22 +5198,22 @@
         <v>10</v>
       </c>
       <c r="E136" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F136" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G136" s="2">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H136" s="3">
         <f>D136*G136/(E136+F136)</f>
-        <v>1.0909090909090908</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="4" t="s">
-        <v>186</v>
+      <c r="A137" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="B137" s="5">
         <v>5</v>
@@ -5190,480 +5226,480 @@
         <v>10</v>
       </c>
       <c r="E137" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F137" s="2">
         <v>6</v>
       </c>
       <c r="G137" s="2">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H137" s="3">
         <f>D137*G137/(E137+F137)</f>
-        <v>1.0909090909090908</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B138" s="6">
-        <v>7</v>
-      </c>
-      <c r="C138" s="6">
-        <v>9</v>
+      <c r="A138" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B138" s="5">
+        <v>8</v>
+      </c>
+      <c r="C138" s="5">
+        <v>8</v>
       </c>
       <c r="D138" s="2">
         <f>B138+C138</f>
         <v>16</v>
       </c>
       <c r="E138" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F138" s="2">
         <v>8</v>
       </c>
       <c r="G138" s="2">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H138" s="3">
         <f>D138*G138/(E138+F138)</f>
-        <v>1.0666666666666667</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B139" s="6">
-        <v>9</v>
-      </c>
-      <c r="C139" s="6">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="B139" s="5">
+        <v>6</v>
+      </c>
+      <c r="C139" s="5">
+        <v>5</v>
       </c>
       <c r="D139" s="2">
         <f>B139+C139</f>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E139" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F139" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G139" s="2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H139" s="3">
         <f>D139*G139/(E139+F139)</f>
-        <v>1.0625</v>
+        <v>1.0999999999999999</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B140" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C140" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D140" s="2">
         <f>B140+C140</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E140" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F140" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G140" s="2">
         <v>1.2</v>
       </c>
       <c r="H140" s="3">
         <f>D140*G140/(E140+F140)</f>
-        <v>1.04</v>
+        <v>1.0909090909090908</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>6</v>
+        <v>186</v>
       </c>
       <c r="B141" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C141" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D141" s="2">
         <f>B141+C141</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E141" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F141" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G141" s="2">
         <v>1.2</v>
       </c>
       <c r="H141" s="3">
         <f>D141*G141/(E141+F141)</f>
-        <v>1.04</v>
+        <v>1.0909090909090908</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B142" s="5">
-        <v>6</v>
-      </c>
-      <c r="C142" s="5">
-        <v>6</v>
+        <v>170</v>
+      </c>
+      <c r="B142" s="6">
+        <v>7</v>
+      </c>
+      <c r="C142" s="6">
+        <v>9</v>
       </c>
       <c r="D142" s="2">
         <f>B142+C142</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E142" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F142" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G142" s="2">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H142" s="3">
         <f>D142*G142/(E142+F142)</f>
-        <v>1.0285714285714285</v>
+        <v>1.0666666666666667</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B143" s="5">
-        <v>7</v>
-      </c>
-      <c r="C143" s="5">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="B143" s="6">
+        <v>9</v>
+      </c>
+      <c r="C143" s="6">
+        <v>8</v>
       </c>
       <c r="D143" s="2">
         <f>B143+C143</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E143" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F143" s="2">
         <v>8</v>
       </c>
       <c r="G143" s="2">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="H143" s="3">
         <f>D143*G143/(E143+F143)</f>
-        <v>1.0266666666666668</v>
+        <v>1.0625</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="7" t="s">
-        <v>25</v>
+      <c r="A144" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="B144" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C144" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D144" s="2">
         <f>B144+C144</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E144" s="2">
         <v>9</v>
       </c>
       <c r="F144" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G144" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="H144" s="3">
         <f>D144*G144/(E144+F144)</f>
-        <v>1.0266666666666668</v>
+        <v>1.0588235294117647</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="7" t="s">
-        <v>46</v>
+      <c r="A145" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="B145" s="5">
         <v>6</v>
       </c>
       <c r="C145" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D145" s="2">
         <f>B145+C145</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E145" s="2">
         <v>8</v>
       </c>
       <c r="F145" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G145" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="H145" s="3">
         <f>D145*G145/(E145+F145)</f>
-        <v>1.0153846153846156</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>145</v>
+        <v>6</v>
       </c>
       <c r="B146" s="5">
         <v>6</v>
       </c>
       <c r="C146" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D146" s="2">
         <f>B146+C146</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E146" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F146" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G146" s="2">
         <v>1.2</v>
       </c>
       <c r="H146" s="3">
         <f>D146*G146/(E146+F146)</f>
-        <v>1.0153846153846153</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="4" t="s">
-        <v>7</v>
+      <c r="A147" s="5" t="s">
+        <v>211</v>
       </c>
       <c r="B147" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C147" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D147" s="2">
         <f>B147+C147</f>
         <v>11</v>
       </c>
       <c r="E147" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F147" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G147" s="2">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H147" s="3">
         <f>D147*G147/(E147+F147)</f>
-        <v>1.0153846153846153</v>
+        <v>1.03125</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="B148" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C148" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D148" s="2">
         <f>B148+C148</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E148" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F148" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G148" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="H148" s="3">
         <f>D148*G148/(E148+F148)</f>
-        <v>1</v>
+        <v>1.0285714285714285</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="B149" s="6">
-        <v>9</v>
-      </c>
-      <c r="C149" s="6">
-        <v>8</v>
+        <v>96</v>
+      </c>
+      <c r="B149" s="5">
+        <v>7</v>
+      </c>
+      <c r="C149" s="5">
+        <v>7</v>
       </c>
       <c r="D149" s="2">
         <f>B149+C149</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E149" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F149" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G149" s="2">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H149" s="3">
         <f>D149*G149/(E149+F149)</f>
-        <v>1</v>
+        <v>1.0266666666666668</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B150" s="6">
-        <v>8</v>
-      </c>
-      <c r="C150" s="6">
-        <v>5</v>
+      <c r="A150" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B150" s="5">
+        <v>7</v>
+      </c>
+      <c r="C150" s="5">
+        <v>7</v>
       </c>
       <c r="D150" s="2">
         <f>B150+C150</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E150" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F150" s="2">
         <v>6</v>
       </c>
       <c r="G150" s="2">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H150" s="3">
         <f>D150*G150/(E150+F150)</f>
-        <v>1</v>
+        <v>1.0266666666666668</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B151" s="6">
-        <v>5</v>
-      </c>
-      <c r="C151" s="6">
-        <v>7</v>
+      <c r="A151" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B151" s="5">
+        <v>6</v>
+      </c>
+      <c r="C151" s="5">
+        <v>6</v>
       </c>
       <c r="D151" s="2">
         <f>B151+C151</f>
         <v>12</v>
       </c>
       <c r="E151" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F151" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G151" s="2">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H151" s="3">
         <f>D151*G151/(E151+F151)</f>
-        <v>1</v>
+        <v>1.0153846153846156</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B152" s="6">
-        <v>7</v>
-      </c>
-      <c r="C152" s="6">
-        <v>8</v>
+        <v>145</v>
+      </c>
+      <c r="B152" s="5">
+        <v>6</v>
+      </c>
+      <c r="C152" s="5">
+        <v>5</v>
       </c>
       <c r="D152" s="2">
         <f>B152+C152</f>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E152" s="2">
         <v>7</v>
       </c>
       <c r="F152" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G152" s="2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H152" s="3">
         <f>D152*G152/(E152+F152)</f>
-        <v>1</v>
+        <v>1.0153846153846153</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="7" t="s">
-        <v>63</v>
+      <c r="A153" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="B153" s="5">
         <v>5</v>
       </c>
       <c r="C153" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D153" s="2">
         <f>B153+C153</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F153" s="2">
         <v>6</v>
       </c>
       <c r="G153" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="H153" s="3">
         <f>D153*G153/(E153+F153)</f>
-        <v>1</v>
+        <v>1.0153846153846153</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="B154" s="5">
         <v>5</v>
       </c>
       <c r="C154" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D154" s="2">
         <f>B154+C154</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" s="2">
         <v>6</v>
@@ -5672,253 +5708,253 @@
         <v>5</v>
       </c>
       <c r="G154" s="2">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H154" s="3">
         <f>D154*G154/(E154+F154)</f>
-        <v>0.9818181818181817</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B155" s="5">
-        <v>5</v>
-      </c>
-      <c r="C155" s="5">
-        <v>4</v>
+        <v>178</v>
+      </c>
+      <c r="B155" s="6">
+        <v>9</v>
+      </c>
+      <c r="C155" s="6">
+        <v>8</v>
       </c>
       <c r="D155" s="2">
         <f>B155+C155</f>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E155" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F155" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G155" s="2">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H155" s="3">
         <f>D155*G155/(E155+F155)</f>
-        <v>0.9818181818181817</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B156" s="5">
-        <v>5</v>
-      </c>
-      <c r="C156" s="5">
-        <v>4</v>
+        <v>182</v>
+      </c>
+      <c r="B156" s="6">
+        <v>8</v>
+      </c>
+      <c r="C156" s="6">
+        <v>5</v>
       </c>
       <c r="D156" s="2">
         <f>B156+C156</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E156" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F156" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G156" s="2">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H156" s="3">
         <f>D156*G156/(E156+F156)</f>
-        <v>0.9818181818181817</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B157" s="5">
-        <v>4</v>
-      </c>
-      <c r="C157" s="5">
-        <v>4</v>
+        <v>183</v>
+      </c>
+      <c r="B157" s="6">
+        <v>5</v>
+      </c>
+      <c r="C157" s="6">
+        <v>7</v>
       </c>
       <c r="D157" s="2">
         <f>B157+C157</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E157" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F157" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G157" s="2">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="H157" s="3">
         <f>D157*G157/(E157+F157)</f>
-        <v>0.97777777777777786</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B158" s="5">
-        <v>6</v>
-      </c>
-      <c r="C158" s="5">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="B158" s="6">
+        <v>7</v>
+      </c>
+      <c r="C158" s="6">
+        <v>8</v>
       </c>
       <c r="D158" s="2">
         <f>B158+C158</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E158" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F158" s="2">
         <v>8</v>
       </c>
       <c r="G158" s="2">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H158" s="3">
         <f>D158*G158/(E158+F158)</f>
-        <v>0.97499999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="4" t="s">
-        <v>95</v>
+      <c r="A159" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="B159" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C159" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D159" s="2">
         <f>B159+C159</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E159" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F159" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G159" s="2">
         <v>1.1000000000000001</v>
       </c>
       <c r="H159" s="3">
         <f>D159*G159/(E159+F159)</f>
-        <v>0.96250000000000013</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="7" t="s">
-        <v>45</v>
+      <c r="A160" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="B160" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C160" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D160" s="2">
         <f>B160+C160</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E160" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F160" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G160" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="H160" s="3">
         <f>D160*G160/(E160+F160)</f>
-        <v>0.94285714285714295</v>
+        <v>0.9818181818181817</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B161" s="6">
-        <v>7</v>
-      </c>
-      <c r="C161" s="6">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="B161" s="5">
+        <v>5</v>
+      </c>
+      <c r="C161" s="5">
+        <v>4</v>
       </c>
       <c r="D161" s="2">
         <f>B161+C161</f>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E161" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F161" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G161" s="2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H161" s="3">
         <f>D161*G161/(E161+F161)</f>
-        <v>0.94117647058823528</v>
+        <v>0.9818181818181817</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
-        <v>119</v>
+        <v>185</v>
       </c>
       <c r="B162" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C162" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D162" s="2">
         <f>B162+C162</f>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E162" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F162" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G162" s="2">
         <v>1.2</v>
       </c>
       <c r="H162" s="3">
         <f>D162*G162/(E162+F162)</f>
-        <v>0.91764705882352937</v>
+        <v>0.9818181818181817</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="7" t="s">
-        <v>47</v>
+      <c r="A163" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="B163" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C163" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D163" s="2">
         <f>B163+C163</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E163" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F163" s="2">
         <v>5</v>
@@ -5928,40 +5964,40 @@
       </c>
       <c r="H163" s="3">
         <f>D163*G163/(E163+F163)</f>
-        <v>0.91666666666666663</v>
+        <v>0.97777777777777786</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" s="7" t="s">
-        <v>60</v>
+      <c r="A164" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="B164" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C164" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D164" s="2">
         <f>B164+C164</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E164" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F164" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G164" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="H164" s="3">
         <f>D164*G164/(E164+F164)</f>
-        <v>0.91666666666666663</v>
+        <v>0.97499999999999998</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B165" s="5">
         <v>7</v>
@@ -5977,159 +6013,159 @@
         <v>8</v>
       </c>
       <c r="F165" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G165" s="2">
         <v>1.1000000000000001</v>
       </c>
       <c r="H165" s="3">
         <f>D165*G165/(E165+F165)</f>
-        <v>0.90588235294117658</v>
+        <v>0.96250000000000013</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="4" t="s">
-        <v>104</v>
+      <c r="A166" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="B166" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C166" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D166" s="2">
         <f>B166+C166</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E166" s="2">
         <v>8</v>
       </c>
       <c r="F166" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G166" s="2">
         <v>1.1000000000000001</v>
       </c>
       <c r="H166" s="3">
         <f>D166*G166/(E166+F166)</f>
-        <v>0.90588235294117658</v>
+        <v>0.94285714285714295</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B167" s="5">
-        <v>5</v>
-      </c>
-      <c r="C167" s="5">
-        <v>4</v>
+        <v>177</v>
+      </c>
+      <c r="B167" s="6">
+        <v>7</v>
+      </c>
+      <c r="C167" s="6">
+        <v>9</v>
       </c>
       <c r="D167" s="2">
         <f>B167+C167</f>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E167" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F167" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G167" s="2">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H167" s="3">
         <f>D167*G167/(E167+F167)</f>
-        <v>0.89999999999999991</v>
+        <v>0.94117647058823528</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" s="7" t="s">
-        <v>32</v>
+      <c r="A168" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="B168" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C168" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D168" s="2">
         <f>B168+C168</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E168" s="2">
         <v>8</v>
       </c>
       <c r="F168" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G168" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="H168" s="3">
         <f>D168*G168/(E168+F168)</f>
-        <v>0.88000000000000012</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B169" s="6">
-        <v>8</v>
-      </c>
-      <c r="C169" s="6">
-        <v>6</v>
+        <v>119</v>
+      </c>
+      <c r="B169" s="5">
+        <v>6</v>
+      </c>
+      <c r="C169" s="5">
+        <v>7</v>
       </c>
       <c r="D169" s="2">
         <f>B169+C169</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E169" s="2">
         <v>8</v>
       </c>
       <c r="F169" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G169" s="2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H169" s="3">
         <f>D169*G169/(E169+F169)</f>
-        <v>0.875</v>
+        <v>0.91764705882352937</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170" s="4" t="s">
-        <v>11</v>
+      <c r="A170" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="B170" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C170" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D170" s="2">
         <f>B170+C170</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E170" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F170" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G170" s="2">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H170" s="3">
         <f>D170*G170/(E170+F170)</f>
-        <v>0.87272727272727268</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171" s="4" t="s">
-        <v>108</v>
+      <c r="A171" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="B171" s="5">
         <v>5</v>
@@ -6142,106 +6178,106 @@
         <v>10</v>
       </c>
       <c r="E171" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F171" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G171" s="2">
         <v>1.1000000000000001</v>
       </c>
       <c r="H171" s="3">
         <f>D171*G171/(E171+F171)</f>
-        <v>0.84615384615384615</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="7" t="s">
-        <v>31</v>
+      <c r="A172" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="B172" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C172" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D172" s="2">
         <f>B172+C172</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E172" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F172" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G172" s="2">
         <v>1.1000000000000001</v>
       </c>
       <c r="H172" s="3">
         <f>D172*G172/(E172+F172)</f>
-        <v>0.84615384615384615</v>
+        <v>0.90588235294117658</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="B173" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C173" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D173" s="2">
         <f>B173+C173</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E173" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F173" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G173" s="2">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H173" s="3">
         <f>D173*G173/(E173+F173)</f>
-        <v>0.84000000000000008</v>
+        <v>0.90588235294117658</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A174" s="7" t="s">
-        <v>191</v>
+      <c r="A174" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="B174" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C174" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D174" s="2">
         <f>B174+C174</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E174" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F174" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G174" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="H174" s="3">
         <f>D174*G174/(E174+F174)</f>
-        <v>0.82500000000000007</v>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" s="4" t="s">
-        <v>88</v>
+      <c r="A175" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="B175" s="5">
         <v>5</v>
@@ -6254,106 +6290,106 @@
         <v>10</v>
       </c>
       <c r="E175" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F175" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G175" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="H175" s="3">
         <f>D175*G175/(E175+F175)</f>
-        <v>0.7857142857142857</v>
+        <v>0.88235294117647056</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B176" s="6">
-        <v>6</v>
-      </c>
-      <c r="C176" s="6">
-        <v>5</v>
+      <c r="A176" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B176" s="5">
+        <v>4</v>
+      </c>
+      <c r="C176" s="5">
+        <v>4</v>
       </c>
       <c r="D176" s="2">
         <f>B176+C176</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E176" s="2">
         <v>8</v>
       </c>
       <c r="F176" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G176" s="2">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H176" s="3">
         <f>D176*G176/(E176+F176)</f>
-        <v>0.7857142857142857</v>
+        <v>0.88000000000000012</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B177" s="5">
-        <v>5</v>
-      </c>
-      <c r="C177" s="5">
-        <v>5</v>
+      <c r="A177" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B177" s="6">
+        <v>8</v>
+      </c>
+      <c r="C177" s="6">
+        <v>6</v>
       </c>
       <c r="D177" s="2">
         <f>B177+C177</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E177" s="2">
         <v>8</v>
       </c>
       <c r="F177" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G177" s="2">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="H177" s="3">
         <f>D177*G177/(E177+F177)</f>
-        <v>0.7857142857142857</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="B178" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C178" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D178" s="2">
         <f>B178+C178</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E178" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F178" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G178" s="2">
         <v>1.2</v>
       </c>
       <c r="H178" s="3">
         <f>D178*G178/(E178+F178)</f>
-        <v>0.75</v>
+        <v>0.87272727272727268</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="B179" s="5">
         <v>5</v>
@@ -6366,78 +6402,78 @@
         <v>10</v>
       </c>
       <c r="E179" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F179" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G179" s="2">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H179" s="3">
         <f>D179*G179/(E179+F179)</f>
-        <v>0.75</v>
+        <v>0.84615384615384615</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="B180" s="6">
-        <v>4</v>
-      </c>
-      <c r="C180" s="6">
+      <c r="A180" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B180" s="5">
+        <v>5</v>
+      </c>
+      <c r="C180" s="5">
         <v>5</v>
       </c>
       <c r="D180" s="2">
         <f>B180+C180</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" s="2">
         <v>5</v>
       </c>
       <c r="F180" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G180" s="2">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H180" s="3">
         <f>D180*G180/(E180+F180)</f>
-        <v>0.75</v>
+        <v>0.84615384615384615</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="B181" s="6">
-        <v>6</v>
-      </c>
-      <c r="C181" s="6">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="B181" s="5">
+        <v>4</v>
+      </c>
+      <c r="C181" s="5">
+        <v>3</v>
       </c>
       <c r="D181" s="2">
         <f>B181+C181</f>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E181" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F181" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G181" s="2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H181" s="3">
         <f>D181*G181/(E181+F181)</f>
-        <v>0.75</v>
+        <v>0.84000000000000008</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" s="4" t="s">
-        <v>98</v>
+      <c r="A182" s="7" t="s">
+        <v>191</v>
       </c>
       <c r="B182" s="5">
         <v>6</v>
@@ -6450,7 +6486,7 @@
         <v>12</v>
       </c>
       <c r="E182" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F182" s="2">
         <v>9</v>
@@ -6460,124 +6496,124 @@
       </c>
       <c r="H182" s="3">
         <f>D182*G182/(E182+F182)</f>
-        <v>0.73333333333333339</v>
+        <v>0.82500000000000007</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B183" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C183" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D183" s="2">
         <f>B183+C183</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E183" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F183" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G183" s="2">
         <v>1.1000000000000001</v>
       </c>
       <c r="H183" s="3">
         <f>D183*G183/(E183+F183)</f>
-        <v>0.73333333333333339</v>
+        <v>0.7857142857142857</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B184" s="5">
-        <v>5</v>
-      </c>
-      <c r="C184" s="5">
+        <v>162</v>
+      </c>
+      <c r="B184" s="6">
+        <v>6</v>
+      </c>
+      <c r="C184" s="6">
         <v>5</v>
       </c>
       <c r="D184" s="2">
         <f>B184+C184</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E184" s="2">
         <v>8</v>
       </c>
       <c r="F184" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G184" s="2">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="H184" s="3">
         <f>D184*G184/(E184+F184)</f>
-        <v>0.73333333333333328</v>
+        <v>0.7857142857142857</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" s="4" t="s">
-        <v>135</v>
+      <c r="A185" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="B185" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C185" s="5">
         <v>5</v>
       </c>
       <c r="D185" s="2">
         <f>B185+C185</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E185" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F185" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G185" s="2">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H185" s="3">
         <f>D185*G185/(E185+F185)</f>
-        <v>0.73333333333333328</v>
+        <v>0.7857142857142857</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B186" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C186" s="5">
         <v>5</v>
       </c>
       <c r="D186" s="2">
         <f>B186+C186</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E186" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F186" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G186" s="2">
         <v>1.2</v>
       </c>
       <c r="H186" s="3">
         <f>D186*G186/(E186+F186)</f>
-        <v>0.73333333333333328</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" s="7" t="s">
-        <v>61</v>
+      <c r="A187" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="B187" s="5">
         <v>5</v>
@@ -6593,159 +6629,159 @@
         <v>8</v>
       </c>
       <c r="F187" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G187" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="H187" s="3">
         <f>D187*G187/(E187+F187)</f>
-        <v>0.73333333333333328</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B188" s="5">
-        <v>5</v>
-      </c>
-      <c r="C188" s="5">
+      <c r="A188" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B188" s="6">
+        <v>4</v>
+      </c>
+      <c r="C188" s="6">
         <v>5</v>
       </c>
       <c r="D188" s="2">
         <f>B188+C188</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E188" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F188" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G188" s="2">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="H188" s="3">
         <f>D188*G188/(E188+F188)</f>
-        <v>0.73333333333333328</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="B189" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C189" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D189" s="2">
         <f>B189+C189</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E189" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F189" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G189" s="2">
         <v>1</v>
       </c>
       <c r="H189" s="3">
         <f>D189*G189/(E189+F189)</f>
-        <v>0.72727272727272729</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B190" s="2">
-        <v>9</v>
-      </c>
-      <c r="C190" s="2">
-        <v>9</v>
+      <c r="A190" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B190" s="5">
+        <v>4</v>
+      </c>
+      <c r="C190" s="5">
+        <v>5</v>
       </c>
       <c r="D190" s="2">
         <f>B190+C190</f>
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E190" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F190" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G190" s="2">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="H190" s="3">
         <f>D190*G190/(E190+F190)</f>
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="B191" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C191" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D191" s="2">
         <f>B191+C191</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E191" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F191" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G191" s="2">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H191" s="3">
         <f>D191*G191/(E191+F191)</f>
-        <v>0.72</v>
+        <v>0.73333333333333339</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B192" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C192" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D192" s="2">
         <f>B192+C192</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E192" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F192" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G192" s="2">
         <v>1.1000000000000001</v>
       </c>
       <c r="H192" s="3">
         <f>D192*G192/(E192+F192)</f>
-        <v>0.6875</v>
+        <v>0.73333333333333339</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="B193" s="5">
         <v>5</v>
@@ -6761,57 +6797,57 @@
         <v>8</v>
       </c>
       <c r="F193" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G193" s="2">
         <v>1.1000000000000001</v>
       </c>
       <c r="H193" s="3">
         <f>D193*G193/(E193+F193)</f>
-        <v>0.6875</v>
+        <v>0.73333333333333328</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="B194" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C194" s="5">
         <v>5</v>
       </c>
       <c r="D194" s="2">
         <f>B194+C194</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E194" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F194" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G194" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="H194" s="3">
         <f>D194*G194/(E194+F194)</f>
-        <v>0.6875</v>
+        <v>0.73333333333333328</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B195" s="6">
-        <v>8</v>
-      </c>
-      <c r="C195" s="6">
-        <v>4</v>
+        <v>136</v>
+      </c>
+      <c r="B195" s="5">
+        <v>6</v>
+      </c>
+      <c r="C195" s="5">
+        <v>5</v>
       </c>
       <c r="D195" s="2">
         <f>B195+C195</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E195" s="2">
         <v>9</v>
@@ -6820,16 +6856,16 @@
         <v>9</v>
       </c>
       <c r="G195" s="2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H195" s="3">
         <f>D195*G195/(E195+F195)</f>
-        <v>0.66666666666666663</v>
+        <v>0.73333333333333328</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A196" s="4" t="s">
-        <v>82</v>
+      <c r="A196" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="B196" s="5">
         <v>5</v>
@@ -6845,131 +6881,383 @@
         <v>8</v>
       </c>
       <c r="F196" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G196" s="2">
         <v>1.1000000000000001</v>
       </c>
       <c r="H196" s="3">
         <f>D196*G196/(E196+F196)</f>
-        <v>0.6470588235294118</v>
+        <v>0.73333333333333328</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A197" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B197" s="6">
-        <v>5</v>
-      </c>
-      <c r="C197" s="6">
-        <v>6</v>
+      <c r="A197" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B197" s="5">
+        <v>5</v>
+      </c>
+      <c r="C197" s="5">
+        <v>5</v>
       </c>
       <c r="D197" s="2">
         <f>B197+C197</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E197" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F197" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G197" s="2">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H197" s="3">
         <f>D197*G197/(E197+F197)</f>
-        <v>0.6470588235294118</v>
+        <v>0.73333333333333328</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="B198" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C198" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D198" s="2">
         <f>B198+C198</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E198" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F198" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G198" s="2">
         <v>1</v>
       </c>
       <c r="H198" s="3">
         <f>D198*G198/(E198+F198)</f>
-        <v>0.61111111111111116</v>
+        <v>0.72727272727272729</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A199" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B199" s="6">
-        <v>4</v>
-      </c>
-      <c r="C199" s="6">
-        <v>4</v>
+      <c r="A199" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B199" s="2">
+        <v>9</v>
+      </c>
+      <c r="C199" s="2">
+        <v>9</v>
       </c>
       <c r="D199" s="2">
         <f>B199+C199</f>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E199" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F199" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G199" s="2">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H199" s="3">
         <f>D199*G199/(E199+F199)</f>
-        <v>0.5</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A200" s="7" t="s">
-        <v>15</v>
+      <c r="A200" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="B200" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C200" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D200" s="2">
         <f>B200+C200</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E200" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F200" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G200" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="H200" s="3">
         <f>D200*G200/(E200+F200)</f>
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B201" s="5">
+        <v>5</v>
+      </c>
+      <c r="C201" s="5">
+        <v>5</v>
+      </c>
+      <c r="D201" s="2">
+        <f>B201+C201</f>
+        <v>10</v>
+      </c>
+      <c r="E201" s="2">
+        <v>8</v>
+      </c>
+      <c r="F201" s="2">
+        <v>8</v>
+      </c>
+      <c r="G201" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H201" s="3">
+        <f>D201*G201/(E201+F201)</f>
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B202" s="5">
+        <v>5</v>
+      </c>
+      <c r="C202" s="5">
+        <v>5</v>
+      </c>
+      <c r="D202" s="2">
+        <f>B202+C202</f>
+        <v>10</v>
+      </c>
+      <c r="E202" s="2">
+        <v>8</v>
+      </c>
+      <c r="F202" s="2">
+        <v>8</v>
+      </c>
+      <c r="G202" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H202" s="3">
+        <f>D202*G202/(E202+F202)</f>
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B203" s="5">
+        <v>5</v>
+      </c>
+      <c r="C203" s="5">
+        <v>5</v>
+      </c>
+      <c r="D203" s="2">
+        <f>B203+C203</f>
+        <v>10</v>
+      </c>
+      <c r="E203" s="2">
+        <v>8</v>
+      </c>
+      <c r="F203" s="2">
+        <v>8</v>
+      </c>
+      <c r="G203" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H203" s="3">
+        <f>D203*G203/(E203+F203)</f>
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B204" s="6">
+        <v>8</v>
+      </c>
+      <c r="C204" s="6">
+        <v>4</v>
+      </c>
+      <c r="D204" s="2">
+        <f>B204+C204</f>
+        <v>12</v>
+      </c>
+      <c r="E204" s="2">
+        <v>9</v>
+      </c>
+      <c r="F204" s="2">
+        <v>9</v>
+      </c>
+      <c r="G204" s="2">
+        <v>1</v>
+      </c>
+      <c r="H204" s="3">
+        <f>D204*G204/(E204+F204)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B205" s="5">
+        <v>5</v>
+      </c>
+      <c r="C205" s="5">
+        <v>5</v>
+      </c>
+      <c r="D205" s="2">
+        <f>B205+C205</f>
+        <v>10</v>
+      </c>
+      <c r="E205" s="2">
+        <v>8</v>
+      </c>
+      <c r="F205" s="2">
+        <v>9</v>
+      </c>
+      <c r="G205" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H205" s="3">
+        <f>D205*G205/(E205+F205)</f>
+        <v>0.6470588235294118</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B206" s="6">
+        <v>5</v>
+      </c>
+      <c r="C206" s="6">
+        <v>6</v>
+      </c>
+      <c r="D206" s="2">
+        <f>B206+C206</f>
+        <v>11</v>
+      </c>
+      <c r="E206" s="2">
+        <v>8</v>
+      </c>
+      <c r="F206" s="2">
+        <v>9</v>
+      </c>
+      <c r="G206" s="2">
+        <v>1</v>
+      </c>
+      <c r="H206" s="3">
+        <f>D206*G206/(E206+F206)</f>
+        <v>0.6470588235294118</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B207" s="6">
+        <v>6</v>
+      </c>
+      <c r="C207" s="6">
+        <v>5</v>
+      </c>
+      <c r="D207" s="2">
+        <f>B207+C207</f>
+        <v>11</v>
+      </c>
+      <c r="E207" s="2">
+        <v>9</v>
+      </c>
+      <c r="F207" s="2">
+        <v>9</v>
+      </c>
+      <c r="G207" s="2">
+        <v>1</v>
+      </c>
+      <c r="H207" s="3">
+        <f>D207*G207/(E207+F207)</f>
+        <v>0.61111111111111116</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B208" s="6">
+        <v>4</v>
+      </c>
+      <c r="C208" s="6">
+        <v>4</v>
+      </c>
+      <c r="D208" s="2">
+        <f>B208+C208</f>
+        <v>8</v>
+      </c>
+      <c r="E208" s="2">
+        <v>8</v>
+      </c>
+      <c r="F208" s="2">
+        <v>8</v>
+      </c>
+      <c r="G208" s="2">
+        <v>1</v>
+      </c>
+      <c r="H208" s="3">
+        <f>D208*G208/(E208+F208)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B209" s="5">
+        <v>2</v>
+      </c>
+      <c r="C209" s="5">
+        <v>2</v>
+      </c>
+      <c r="D209" s="2">
+        <f>B209+C209</f>
+        <v>4</v>
+      </c>
+      <c r="E209" s="2">
+        <v>6</v>
+      </c>
+      <c r="F209" s="2">
+        <v>6</v>
+      </c>
+      <c r="G209" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H209" s="3">
+        <f>D209*G209/(E209+F209)</f>
         <v>0.3666666666666667</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H200">
-    <sortCondition descending="1" ref="H200"/>
+  <sortState ref="A2:H209">
+    <sortCondition descending="1" ref="H209"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
